--- a/src/Data/Scalability/CluStream/Clustream-Dimension-KDD98-Throughput-xParallelism.xlsx
+++ b/src/Data/Scalability/CluStream/Clustream-Dimension-KDD98-Throughput-xParallelism.xlsx
@@ -57,27 +57,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D=50</t>
+    <t>#features=50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D=100</t>
+    <t>#features=100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D=150</t>
+    <t>#features=150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D=200</t>
+    <t>#features=200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D=250</t>
+    <t>#features=250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D=315</t>
+    <t>#features=315</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,10 +253,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>D=250</c:v>
+                  <c:v>#features=250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>D=315</c:v>
+                  <c:v>#features=315</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -281,7 +281,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -319,10 +319,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>D=250</c:v>
+                  <c:v>#features=250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>D=315</c:v>
+                  <c:v>#features=315</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -347,7 +347,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -385,10 +385,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>D=250</c:v>
+                  <c:v>#features=250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>D=315</c:v>
+                  <c:v>#features=315</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -400,10 +400,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4504.07345439706</c:v>
+                  <c:v>4.50407345439706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3517.884538</c:v>
+                  <c:v>3.517884538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,7 +416,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -454,10 +454,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>D=250</c:v>
+                  <c:v>#features=250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>D=315</c:v>
+                  <c:v>#features=315</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -469,10 +469,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8695.16559712687</c:v>
+                  <c:v>8.69516559712687</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6669.522001</c:v>
+                  <c:v>6.669522001000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,7 +485,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -523,10 +523,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>D=250</c:v>
+                  <c:v>#features=250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>D=315</c:v>
+                  <c:v>#features=315</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -538,10 +538,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16504.5035486076</c:v>
+                  <c:v>16.5045035486076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12735.20769</c:v>
+                  <c:v>12.73520769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,7 +554,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -592,10 +592,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>D=250</c:v>
+                  <c:v>#features=250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>D=315</c:v>
+                  <c:v>#features=315</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -607,10 +607,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28590.0564671765</c:v>
+                  <c:v>28.5900564671765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23196.05455</c:v>
+                  <c:v>23.19605455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,7 +623,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -652,11 +652,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1028258416"/>
-        <c:axId val="-1031004048"/>
+        <c:axId val="-1514324352"/>
+        <c:axId val="-1514897952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1028258416"/>
+        <c:axId val="-1514324352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031004048"/>
+        <c:crossAx val="-1514897952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -707,7 +707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1031004048"/>
+        <c:axId val="-1514897952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,7 +758,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1028258416"/>
+        <c:crossAx val="-1514324352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1401,7 +1401,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADF420E-CB11-B149-AC71-0BFF72A073B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3ADF420E-CB11-B149-AC71-0BFF72A073B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1722,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1761,22 +1761,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20369.964569191899</v>
+        <v>20.3699645691919</v>
       </c>
       <c r="C2" s="1">
-        <v>11090.2928008241</v>
+        <v>11.0902928008241</v>
       </c>
       <c r="D2" s="1">
-        <v>7397.1729369942104</v>
+        <v>7.3971729369942105</v>
       </c>
       <c r="E2" s="1">
-        <v>5567.6092084440597</v>
+        <v>5.5676092084440594</v>
       </c>
       <c r="F2" s="1">
-        <v>4504.0734543970602</v>
+        <v>4.5040734543970604</v>
       </c>
       <c r="G2" s="1">
-        <v>3517.8845379999998</v>
+        <v>3.5178845379999997</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1784,22 +1784,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>38832.260034419502</v>
+        <v>38.832260034419498</v>
       </c>
       <c r="C3" s="1">
-        <v>21284.712983587098</v>
+        <v>21.284712983587099</v>
       </c>
       <c r="D3" s="1">
-        <v>14362.2074728839</v>
+        <v>14.362207472883899</v>
       </c>
       <c r="E3" s="1">
-        <v>10776.2160248169</v>
+        <v>10.7762160248169</v>
       </c>
       <c r="F3" s="1">
-        <v>8695.1655971268701</v>
+        <v>8.69516559712687</v>
       </c>
       <c r="G3" s="1">
-        <v>6669.5220010000003</v>
+        <v>6.6695220010000007</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1807,22 +1807,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>66870.596383959404</v>
+        <v>66.870596383959409</v>
       </c>
       <c r="C4" s="1">
-        <v>36042.882154535298</v>
+        <v>36.042882154535299</v>
       </c>
       <c r="D4" s="1">
-        <v>27044.928950240999</v>
+        <v>27.044928950240998</v>
       </c>
       <c r="E4" s="1">
-        <v>20645.3358896836</v>
+        <v>20.645335889683601</v>
       </c>
       <c r="F4" s="1">
-        <v>16504.503548607601</v>
+        <v>16.504503548607602</v>
       </c>
       <c r="G4" s="1">
-        <v>12735.207689999999</v>
+        <v>12.735207689999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1830,22 +1830,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>106833.823024382</v>
+        <v>106.833823024382</v>
       </c>
       <c r="C5" s="1">
-        <v>63450.5200661696</v>
+        <v>63.450520066169602</v>
       </c>
       <c r="D5" s="1">
-        <v>43285.2792035124</v>
+        <v>43.285279203512403</v>
       </c>
       <c r="E5" s="1">
-        <v>34553.053404999999</v>
+        <v>34.553053405</v>
       </c>
       <c r="F5" s="1">
-        <v>28590.056467176499</v>
+        <v>28.590056467176499</v>
       </c>
       <c r="G5" s="1">
-        <v>23196.054550000001</v>
+        <v>23.196054549999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>122010.284568788</v>
+        <v>122.01028456878801</v>
       </c>
       <c r="C6" s="1">
-        <v>77260.996743749594</v>
+        <v>77.260996743749601</v>
       </c>
       <c r="D6" s="1">
-        <v>65374.7227345957</v>
+        <v>65.374722734595693</v>
       </c>
       <c r="E6" s="1">
-        <v>53076.224598119501</v>
+        <v>53.076224598119502</v>
       </c>
       <c r="F6" s="1">
-        <v>46526.087534478698</v>
+        <v>46.526087534478698</v>
       </c>
       <c r="G6" s="1">
-        <v>36844.791279999998</v>
+        <v>36.844791279999995</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1876,22 +1876,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>126839.98550265</v>
+        <v>126.83998550264999</v>
       </c>
       <c r="C7" s="1">
-        <v>85055.499863300807</v>
+        <v>85.05549986330081</v>
       </c>
       <c r="D7" s="1">
-        <v>71296.646209478204</v>
+        <v>71.296646209478197</v>
       </c>
       <c r="E7" s="1">
-        <v>61530.3036962158</v>
+        <v>61.530303696215803</v>
       </c>
       <c r="F7" s="1">
-        <v>54262.490794216799</v>
+        <v>54.262490794216802</v>
       </c>
       <c r="G7" s="1">
-        <v>46481.566899999998</v>
+        <v>46.481566899999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1906,49 +1906,17 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
